--- a/data_raw/gsheet_input_var_name_xwalk.xlsx
+++ b/data_raw/gsheet_input_var_name_xwalk.xlsx
@@ -1,38 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapeek/Documents/github/ffm_accumulation/data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E17601-84A0-B542-98DD-6A08C13AFE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="lsh_nhdv2_sample_input_var_name" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="revised_xwalk_names" sheetId="2" r:id="rId5"/>
+    <sheet name="lsh_nhdv2_sample_input_var_name" sheetId="1" r:id="rId1"/>
+    <sheet name="revised_xwalk_names" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C198">
+    <comment ref="C162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">same as above?
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Same?
 	-Ryan Peek</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C162">
+    <comment ref="C165" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Same?
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Same?
 	-Ryan Peek</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C165">
+    <comment ref="C198" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Same?
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>same as above?
 	-Ryan Peek</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -2176,9 +2206,6 @@
     <t>area_sf</t>
   </si>
   <si>
-    <t>calcuated using sf and revised catch</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -2293,18 +2320,12 @@
     <t>PPTAVG_BASIN</t>
   </si>
   <si>
-    <t>caculated from cat_ppt7100_ann</t>
-  </si>
-  <si>
     <t>T_AVG_CAT</t>
   </si>
   <si>
     <t>T_AVG_BASIN</t>
   </si>
   <si>
-    <t>caculated from cat_tav7100_ann</t>
-  </si>
-  <si>
     <t>T_MIN_BASIN</t>
   </si>
   <si>
@@ -2708,61 +2729,73 @@
   </si>
   <si>
     <t>KRUG_RUNOFF</t>
+  </si>
+  <si>
+    <t>calculated using sf and revised catch</t>
+  </si>
+  <si>
+    <t>calculated from cat_ppt7100_ann</t>
+  </si>
+  <si>
+    <t>calculated from cat_tav7100_ann</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0563C1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -2772,7 +2805,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2788,87 +2821,64 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3058,34 +3068,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="36.11"/>
-    <col customWidth="1" min="3" max="3" width="19.67"/>
-    <col customWidth="1" min="4" max="4" width="36.56"/>
-    <col customWidth="1" min="5" max="5" width="14.33"/>
-    <col customWidth="1" min="6" max="6" width="42.78"/>
-    <col customWidth="1" min="7" max="25" width="10.56"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="25" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3153,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -3216,7 +3226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -3231,7 +3241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -3246,7 +3256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -3291,7 +3301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -3321,7 +3331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -3366,7 +3376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3381,7 +3391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
@@ -3396,7 +3406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -3411,7 +3421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
@@ -3426,7 +3436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
@@ -3441,7 +3451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -3471,7 +3481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -3486,7 +3496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
@@ -3501,7 +3511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -3516,7 +3526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
@@ -3546,7 +3556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
@@ -3576,7 +3586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -3606,7 +3616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -3651,7 +3661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -3681,7 +3691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3696,7 +3706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -3711,7 +3721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -3741,7 +3751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
@@ -3756,7 +3766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>56</v>
       </c>
@@ -3771,7 +3781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>57</v>
       </c>
@@ -3786,7 +3796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>58</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>61</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
@@ -3846,7 +3856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>63</v>
       </c>
@@ -3861,7 +3871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
@@ -3876,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>65</v>
       </c>
@@ -3891,7 +3901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>67</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>68</v>
       </c>
@@ -3936,7 +3946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>69</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>70</v>
       </c>
@@ -3966,7 +3976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
@@ -3981,7 +3991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>72</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
@@ -4011,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>74</v>
       </c>
@@ -4026,7 +4036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
@@ -4041,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>76</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>77</v>
       </c>
@@ -4071,7 +4081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
@@ -4086,7 +4096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -4116,7 +4126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -4131,7 +4141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>84</v>
       </c>
@@ -4146,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>86</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>88</v>
       </c>
@@ -4176,7 +4186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>90</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>92</v>
       </c>
@@ -4206,7 +4216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>93</v>
       </c>
@@ -4221,7 +4231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>94</v>
       </c>
@@ -4236,7 +4246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>95</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>97</v>
       </c>
@@ -4266,7 +4276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>99</v>
       </c>
@@ -4281,7 +4291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>101</v>
       </c>
@@ -4296,7 +4306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>103</v>
       </c>
@@ -4311,7 +4321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>105</v>
       </c>
@@ -4326,7 +4336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>106</v>
       </c>
@@ -4341,7 +4351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>107</v>
       </c>
@@ -4356,7 +4366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>108</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>109</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>111</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>112</v>
       </c>
@@ -4431,7 +4441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>113</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>114</v>
       </c>
@@ -4461,7 +4471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>115</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>116</v>
       </c>
@@ -4491,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>117</v>
       </c>
@@ -4506,7 +4516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>118</v>
       </c>
@@ -4521,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>119</v>
       </c>
@@ -4536,7 +4546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>120</v>
       </c>
@@ -4551,7 +4561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>121</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>122</v>
       </c>
@@ -4581,7 +4591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>123</v>
       </c>
@@ -4596,7 +4606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>124</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>125</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>126</v>
       </c>
@@ -4641,7 +4651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>127</v>
       </c>
@@ -4656,7 +4666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>128</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>129</v>
       </c>
@@ -4686,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>130</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -4726,7 +4736,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>138</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>141</v>
       </c>
@@ -4766,7 +4776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>145</v>
       </c>
@@ -4786,7 +4796,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>149</v>
       </c>
@@ -4806,7 +4816,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>153</v>
       </c>
@@ -4826,7 +4836,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>159</v>
       </c>
@@ -4843,7 +4853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>163</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>165</v>
       </c>
@@ -4877,7 +4887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>167</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>169</v>
       </c>
@@ -4911,7 +4921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>171</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>173</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>175</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>177</v>
       </c>
@@ -4979,7 +4989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>179</v>
       </c>
@@ -4996,7 +5006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>181</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>183</v>
       </c>
@@ -5030,7 +5040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>185</v>
       </c>
@@ -5047,7 +5057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>187</v>
       </c>
@@ -5064,7 +5074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>189</v>
       </c>
@@ -5081,7 +5091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>191</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>193</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>195</v>
       </c>
@@ -5132,7 +5142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>197</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>199</v>
       </c>
@@ -5166,7 +5176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>201</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>206</v>
       </c>
@@ -5200,7 +5210,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>209</v>
       </c>
@@ -5217,7 +5227,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>213</v>
       </c>
@@ -5234,7 +5244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>215</v>
       </c>
@@ -5251,7 +5261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>219</v>
       </c>
@@ -5268,7 +5278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>223</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>227</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>229</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>233</v>
       </c>
@@ -5336,7 +5346,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>235</v>
       </c>
@@ -5353,7 +5363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>239</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>241</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>244</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>246</v>
       </c>
@@ -5418,7 +5428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>248</v>
       </c>
@@ -5435,7 +5445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>250</v>
       </c>
@@ -5452,7 +5462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>252</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>254</v>
       </c>
@@ -5486,7 +5496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>256</v>
       </c>
@@ -5503,7 +5513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>258</v>
       </c>
@@ -5520,7 +5530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>260</v>
       </c>
@@ -5537,7 +5547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>262</v>
       </c>
@@ -5554,7 +5564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>266</v>
       </c>
@@ -5571,7 +5581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>270</v>
       </c>
@@ -5588,7 +5598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>278</v>
       </c>
@@ -5622,7 +5632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>282</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>285</v>
       </c>
@@ -5656,7 +5666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>289</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>292</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>296</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>299</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>304</v>
       </c>
@@ -5744,7 +5754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>308</v>
       </c>
@@ -5761,7 +5771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>312</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>316</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>320</v>
       </c>
@@ -5812,7 +5822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>324</v>
       </c>
@@ -5829,7 +5839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>328</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>332</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>336</v>
       </c>
@@ -5880,7 +5890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>339</v>
       </c>
@@ -5897,7 +5907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>343</v>
       </c>
@@ -5914,7 +5924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>346</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>349</v>
       </c>
@@ -5948,7 +5958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>353</v>
       </c>
@@ -5965,7 +5975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>356</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>359</v>
       </c>
@@ -5999,7 +6009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>362</v>
       </c>
@@ -6016,7 +6026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>365</v>
       </c>
@@ -6033,7 +6043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>368</v>
       </c>
@@ -6050,7 +6060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>371</v>
       </c>
@@ -6067,7 +6077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>374</v>
       </c>
@@ -6084,7 +6094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>377</v>
       </c>
@@ -6101,7 +6111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>380</v>
       </c>
@@ -6118,7 +6128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>383</v>
       </c>
@@ -6135,7 +6145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>386</v>
       </c>
@@ -6152,7 +6162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>389</v>
       </c>
@@ -6169,7 +6179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>392</v>
       </c>
@@ -6186,7 +6196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>395</v>
       </c>
@@ -6203,7 +6213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>398</v>
       </c>
@@ -6220,7 +6230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>401</v>
       </c>
@@ -6237,7 +6247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>404</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>407</v>
       </c>
@@ -6271,7 +6281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>409</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>414</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>416</v>
       </c>
@@ -6322,7 +6332,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>418</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>420</v>
       </c>
@@ -6356,7 +6366,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>422</v>
       </c>
@@ -6373,7 +6383,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>424</v>
       </c>
@@ -6390,7 +6400,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>426</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>428</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>430</v>
       </c>
@@ -6441,7 +6451,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>434</v>
       </c>
@@ -6458,7 +6468,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>437</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>440</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>443</v>
       </c>
@@ -6509,7 +6519,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>446</v>
       </c>
@@ -6526,7 +6536,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>449</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>452</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>455</v>
       </c>
@@ -6577,7 +6587,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>458</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>461</v>
       </c>
@@ -6611,7 +6621,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>464</v>
       </c>
@@ -6628,7 +6638,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>467</v>
       </c>
@@ -6645,7 +6655,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>470</v>
       </c>
@@ -6662,7 +6672,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>473</v>
       </c>
@@ -6679,7 +6689,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>476</v>
       </c>
@@ -6696,7 +6706,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>479</v>
       </c>
@@ -6713,7 +6723,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>482</v>
       </c>
@@ -6730,7 +6740,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>485</v>
       </c>
@@ -6747,7 +6757,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>488</v>
       </c>
@@ -6764,7 +6774,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>491</v>
       </c>
@@ -6781,7 +6791,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>494</v>
       </c>
@@ -6798,7 +6808,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>497</v>
       </c>
@@ -6815,7 +6825,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>500</v>
       </c>
@@ -6832,7 +6842,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>503</v>
       </c>
@@ -6849,7 +6859,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>506</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>509</v>
       </c>
@@ -6883,7 +6893,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>512</v>
       </c>
@@ -6900,7 +6910,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>515</v>
       </c>
@@ -6917,7 +6927,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>518</v>
       </c>
@@ -6934,7 +6944,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>521</v>
       </c>
@@ -6951,7 +6961,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>524</v>
       </c>
@@ -6968,7 +6978,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>527</v>
       </c>
@@ -6985,7 +6995,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>530</v>
       </c>
@@ -7002,7 +7012,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>533</v>
       </c>
@@ -7019,7 +7029,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>536</v>
       </c>
@@ -7036,7 +7046,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>539</v>
       </c>
@@ -7053,7 +7063,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>542</v>
       </c>
@@ -7070,7 +7080,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>545</v>
       </c>
@@ -7087,7 +7097,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>548</v>
       </c>
@@ -7104,7 +7114,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>551</v>
       </c>
@@ -7121,7 +7131,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>554</v>
       </c>
@@ -7138,7 +7148,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>557</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>560</v>
       </c>
@@ -7172,7 +7182,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>563</v>
       </c>
@@ -7189,7 +7199,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>566</v>
       </c>
@@ -7206,7 +7216,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>570</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>573</v>
       </c>
@@ -7240,7 +7250,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>576</v>
       </c>
@@ -7257,7 +7267,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>579</v>
       </c>
@@ -7274,7 +7284,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>582</v>
       </c>
@@ -7291,7 +7301,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>585</v>
       </c>
@@ -7308,7 +7318,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>588</v>
       </c>
@@ -7325,7 +7335,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>591</v>
       </c>
@@ -7342,7 +7352,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>594</v>
       </c>
@@ -7359,7 +7369,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>598</v>
       </c>
@@ -7376,10 +7386,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D264" s="4"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="17" t="s">
         <v>601</v>
       </c>
@@ -7387,7 +7397,7 @@
       <c r="C265" s="18"/>
       <c r="D265" s="19"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18" t="s">
         <v>602</v>
       </c>
@@ -7397,7 +7407,7 @@
       <c r="C266" s="18"/>
       <c r="D266" s="19"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18" t="s">
         <v>604</v>
       </c>
@@ -7409,7 +7419,7 @@
       </c>
       <c r="D267" s="22"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18" t="s">
         <v>606</v>
       </c>
@@ -7421,7 +7431,7 @@
       </c>
       <c r="D268" s="22"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18" t="s">
         <v>607</v>
       </c>
@@ -7433,7 +7443,7 @@
       </c>
       <c r="D269" s="22"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18" t="s">
         <v>608</v>
       </c>
@@ -7443,7 +7453,7 @@
       <c r="C270" s="18"/>
       <c r="D270" s="19"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18" t="s">
         <v>609</v>
       </c>
@@ -7455,2205 +7465,2206 @@
       </c>
       <c r="D271" s="22"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" s="4"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D275" s="4"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D276" s="4"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D277" s="4"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" s="4"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" s="4"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D280" s="4"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" s="4"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" s="4"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" s="4"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D284" s="4"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" s="4"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" s="4"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" s="4"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D288" s="4"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D289" s="4"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D290" s="4"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D291" s="4"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D292" s="4"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D293" s="4"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D294" s="4"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D295" s="4"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D296" s="4"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D297" s="4"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D298" s="4"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D299" s="4"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" s="4"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D301" s="4"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D302" s="4"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D303" s="4"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D304" s="4"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D305" s="4"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D306" s="4"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D307" s="4"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D308" s="4"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D309" s="4"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D310" s="4"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D311" s="4"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D312" s="4"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D313" s="4"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D314" s="4"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D315" s="4"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D316" s="4"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D317" s="4"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" s="4"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" s="4"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D320" s="4"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D321" s="4"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D322" s="4"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D323" s="4"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D324" s="4"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D325" s="4"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D326" s="4"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D327" s="4"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D328" s="4"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D329" s="4"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D330" s="4"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D331" s="4"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" s="4"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" s="4"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" s="4"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" s="4"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" s="4"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D337" s="4"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D338" s="4"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D339" s="4"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D340" s="4"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D341" s="4"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D342" s="4"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D343" s="4"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D344" s="4"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D345" s="4"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D346" s="4"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D347" s="4"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D348" s="4"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D349" s="4"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D350" s="4"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D351" s="4"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D352" s="4"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D353" s="4"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D354" s="4"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D355" s="4"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D356" s="4"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D357" s="4"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D358" s="4"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D359" s="4"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D360" s="4"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D361" s="4"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D362" s="4"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D363" s="4"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D364" s="4"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D365" s="4"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D366" s="4"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D367" s="4"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D368" s="4"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D369" s="4"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D370" s="4"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D371" s="4"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D372" s="4"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D373" s="4"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D374" s="4"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D375" s="4"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D376" s="4"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D377" s="4"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D378" s="4"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D379" s="4"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D380" s="4"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D381" s="4"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D382" s="4"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D383" s="4"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D384" s="4"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D385" s="4"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D386" s="4"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D387" s="4"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D388" s="4"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D389" s="4"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D390" s="4"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D391" s="4"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D392" s="4"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D393" s="4"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D394" s="4"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D395" s="4"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D396" s="4"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D397" s="4"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D398" s="4"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D399" s="4"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D400" s="4"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D401" s="4"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D402" s="4"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D403" s="4"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D404" s="4"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D405" s="4"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D406" s="4"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D407" s="4"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D408" s="4"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D409" s="4"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D410" s="4"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D411" s="4"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D412" s="4"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D413" s="4"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D414" s="4"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D415" s="4"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D416" s="4"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D417" s="4"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D418" s="4"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D419" s="4"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D420" s="4"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D421" s="4"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D422" s="4"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D423" s="4"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D424" s="4"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D425" s="4"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D426" s="4"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D427" s="4"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D428" s="4"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D429" s="4"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D430" s="4"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D431" s="4"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D432" s="4"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D433" s="4"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D434" s="4"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D435" s="4"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D436" s="4"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D437" s="4"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D438" s="4"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D439" s="4"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D440" s="4"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D441" s="4"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D442" s="4"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D443" s="4"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D444" s="4"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D445" s="4"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D446" s="4"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D447" s="4"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D448" s="4"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D449" s="4"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D450" s="4"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D451" s="4"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D452" s="4"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D453" s="4"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D454" s="4"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D455" s="4"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D456" s="4"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D457" s="4"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D458" s="4"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D459" s="4"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D460" s="4"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D461" s="4"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D462" s="4"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D463" s="4"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D464" s="4"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D465" s="4"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D466" s="4"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D467" s="4"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D468" s="4"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D469" s="4"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D470" s="4"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D471" s="4"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D472" s="4"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D473" s="4"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D474" s="4"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D475" s="4"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D476" s="4"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D477" s="4"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D478" s="4"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D479" s="4"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D480" s="4"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D481" s="4"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D482" s="4"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D483" s="4"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D484" s="4"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D485" s="4"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D486" s="4"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D487" s="4"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D488" s="4"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D489" s="4"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D490" s="4"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D491" s="4"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D492" s="4"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D493" s="4"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D494" s="4"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D495" s="4"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D496" s="4"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D497" s="4"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D498" s="4"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D499" s="4"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D500" s="4"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D501" s="4"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D502" s="4"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D503" s="4"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D504" s="4"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D505" s="4"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D506" s="4"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D507" s="4"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D508" s="4"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D509" s="4"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D510" s="4"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D511" s="4"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D512" s="4"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D513" s="4"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D514" s="4"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D515" s="4"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D516" s="4"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D517" s="4"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D518" s="4"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D519" s="4"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D520" s="4"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D521" s="4"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D522" s="4"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D523" s="4"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D524" s="4"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D525" s="4"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D526" s="4"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D527" s="4"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D528" s="4"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D529" s="4"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D530" s="4"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D531" s="4"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D532" s="4"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D533" s="4"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D534" s="4"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D535" s="4"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D536" s="4"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D537" s="4"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D538" s="4"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D539" s="4"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D540" s="4"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D541" s="4"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D542" s="4"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D543" s="4"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D544" s="4"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D545" s="4"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D546" s="4"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D547" s="4"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D548" s="4"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D549" s="4"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D550" s="4"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D551" s="4"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D552" s="4"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D553" s="4"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D554" s="4"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D555" s="4"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D556" s="4"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D557" s="4"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D558" s="4"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D559" s="4"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D560" s="4"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D561" s="4"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D562" s="4"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D563" s="4"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D564" s="4"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D565" s="4"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D566" s="4"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D567" s="4"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D568" s="4"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D569" s="4"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D570" s="4"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D571" s="4"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D572" s="4"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D573" s="4"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D574" s="4"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D575" s="4"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D576" s="4"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D577" s="4"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D578" s="4"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D579" s="4"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D580" s="4"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D581" s="4"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D582" s="4"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D583" s="4"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D584" s="4"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D585" s="4"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D586" s="4"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D587" s="4"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D588" s="4"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D589" s="4"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D590" s="4"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D591" s="4"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D592" s="4"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D593" s="4"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D594" s="4"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D595" s="4"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D596" s="4"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D597" s="4"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D598" s="4"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D599" s="4"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D600" s="4"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D601" s="4"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D602" s="4"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D603" s="4"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D604" s="4"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D605" s="4"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D606" s="4"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D607" s="4"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D608" s="4"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D609" s="4"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D610" s="4"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D611" s="4"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D612" s="4"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D613" s="4"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D614" s="4"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D615" s="4"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D616" s="4"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D617" s="4"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D618" s="4"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D619" s="4"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D620" s="4"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D621" s="4"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D622" s="4"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D623" s="4"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D624" s="4"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D625" s="4"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D626" s="4"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D627" s="4"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D628" s="4"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D629" s="4"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D630" s="4"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D631" s="4"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D632" s="4"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D633" s="4"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D634" s="4"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D635" s="4"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D636" s="4"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D637" s="4"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D638" s="4"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D639" s="4"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D640" s="4"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D641" s="4"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D642" s="4"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D643" s="4"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D644" s="4"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D645" s="4"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D646" s="4"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D647" s="4"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D648" s="4"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D649" s="4"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D650" s="4"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D651" s="4"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D652" s="4"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D653" s="4"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D654" s="4"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D655" s="4"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D656" s="4"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D657" s="4"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D658" s="4"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D659" s="4"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D660" s="4"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D661" s="4"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D662" s="4"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D663" s="4"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D664" s="4"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D665" s="4"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D666" s="4"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D667" s="4"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D668" s="4"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D669" s="4"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D670" s="4"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D671" s="4"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D672" s="4"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D673" s="4"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D674" s="4"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D675" s="4"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D676" s="4"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D677" s="4"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D678" s="4"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D679" s="4"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D680" s="4"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D681" s="4"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D682" s="4"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D683" s="4"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D684" s="4"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D685" s="4"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D686" s="4"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D687" s="4"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D688" s="4"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D689" s="4"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D690" s="4"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D691" s="4"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D692" s="4"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D693" s="4"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D694" s="4"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D695" s="4"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D696" s="4"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D697" s="4"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D698" s="4"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D699" s="4"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D700" s="4"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D701" s="4"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D702" s="4"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D703" s="4"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D704" s="4"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D705" s="4"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D706" s="4"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D707" s="4"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D708" s="4"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D709" s="4"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D710" s="4"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D711" s="4"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D712" s="4"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D713" s="4"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D714" s="4"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D715" s="4"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D716" s="4"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D717" s="4"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D718" s="4"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D719" s="4"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D720" s="4"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D721" s="4"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D722" s="4"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D723" s="4"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D724" s="4"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D725" s="4"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D726" s="4"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D727" s="4"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D728" s="4"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D729" s="4"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D730" s="4"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D731" s="4"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D732" s="4"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D733" s="4"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D734" s="4"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D735" s="4"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D736" s="4"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D737" s="4"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D738" s="4"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D739" s="4"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D740" s="4"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D741" s="4"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D742" s="4"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D743" s="4"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D744" s="4"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D745" s="4"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D746" s="4"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D747" s="4"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D748" s="4"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D749" s="4"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D750" s="4"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D751" s="4"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D752" s="4"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D753" s="4"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D754" s="4"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D755" s="4"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D756" s="4"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D757" s="4"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D758" s="4"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D759" s="4"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D760" s="4"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D761" s="4"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D762" s="4"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D763" s="4"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D764" s="4"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D765" s="4"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D766" s="4"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D767" s="4"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D768" s="4"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D769" s="4"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D770" s="4"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D771" s="4"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D772" s="4"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D773" s="4"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D774" s="4"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D775" s="4"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D776" s="4"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D777" s="4"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D778" s="4"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D779" s="4"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D780" s="4"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D781" s="4"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D782" s="4"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D783" s="4"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D784" s="4"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D785" s="4"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D786" s="4"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D787" s="4"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D788" s="4"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D789" s="4"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D790" s="4"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D791" s="4"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D792" s="4"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D793" s="4"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D794" s="4"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D795" s="4"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D796" s="4"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D797" s="4"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D798" s="4"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D799" s="4"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D800" s="4"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D801" s="4"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D802" s="4"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D803" s="4"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D804" s="4"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D805" s="4"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D806" s="4"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D807" s="4"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D808" s="4"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D809" s="4"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D810" s="4"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D811" s="4"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D812" s="4"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D813" s="4"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D814" s="4"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D815" s="4"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D816" s="4"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D817" s="4"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D818" s="4"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D819" s="4"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D820" s="4"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D821" s="4"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D822" s="4"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D823" s="4"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D824" s="4"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D825" s="4"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D826" s="4"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D827" s="4"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D828" s="4"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D829" s="4"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D830" s="4"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D831" s="4"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D832" s="4"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D833" s="4"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D834" s="4"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D835" s="4"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D836" s="4"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D837" s="4"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D838" s="4"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D839" s="4"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D840" s="4"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D841" s="4"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D842" s="4"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D843" s="4"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D844" s="4"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D845" s="4"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D846" s="4"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D847" s="4"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D848" s="4"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D849" s="4"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D850" s="4"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D851" s="4"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D852" s="4"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D853" s="4"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D854" s="4"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D855" s="4"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D856" s="4"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D857" s="4"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D858" s="4"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D859" s="4"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D860" s="4"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D861" s="4"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D862" s="4"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D863" s="4"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D864" s="4"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D865" s="4"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D866" s="4"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D867" s="4"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D868" s="4"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D869" s="4"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D870" s="4"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D871" s="4"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D872" s="4"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D873" s="4"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D874" s="4"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D875" s="4"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D876" s="4"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D877" s="4"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D878" s="4"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D879" s="4"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D880" s="4"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D881" s="4"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D882" s="4"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D883" s="4"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D884" s="4"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D885" s="4"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D886" s="4"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D887" s="4"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D888" s="4"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D889" s="4"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D890" s="4"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D891" s="4"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D892" s="4"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D893" s="4"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D894" s="4"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D895" s="4"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D896" s="4"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D897" s="4"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D898" s="4"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D899" s="4"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D900" s="4"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D901" s="4"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D902" s="4"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D903" s="4"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D904" s="4"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D905" s="4"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D906" s="4"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D907" s="4"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D908" s="4"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D909" s="4"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D910" s="4"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D911" s="4"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D912" s="4"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D913" s="4"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D914" s="4"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D915" s="4"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D916" s="4"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D917" s="4"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D918" s="4"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D919" s="4"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D920" s="4"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D921" s="4"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D922" s="4"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D923" s="4"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D924" s="4"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D925" s="4"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D926" s="4"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D927" s="4"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D928" s="4"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D929" s="4"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D930" s="4"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D931" s="4"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D932" s="4"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D933" s="4"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D934" s="4"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D935" s="4"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D936" s="4"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D937" s="4"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D938" s="4"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D939" s="4"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D940" s="4"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D941" s="4"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D942" s="4"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D943" s="4"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D944" s="4"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D945" s="4"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D946" s="4"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D947" s="4"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D948" s="4"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D949" s="4"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D950" s="4"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D951" s="4"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D952" s="4"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D953" s="4"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D954" s="4"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D955" s="4"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D956" s="4"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D957" s="4"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D958" s="4"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D959" s="4"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D960" s="4"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D961" s="4"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D962" s="4"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D963" s="4"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D964" s="4"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D965" s="4"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D966" s="4"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D967" s="4"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D968" s="4"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D969" s="4"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D970" s="4"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D971" s="4"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D972" s="4"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D973" s="4"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D974" s="4"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D975" s="4"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D976" s="4"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D977" s="4"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D978" s="4"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D979" s="4"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D980" s="4"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D981" s="4"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D982" s="4"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D983" s="4"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D984" s="4"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D985" s="4"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D986" s="4"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D987" s="4"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D988" s="4"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D989" s="4"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D990" s="4"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D991" s="4"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D992" s="4"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D993" s="4"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D994" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="F5"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.22"/>
-    <col customWidth="1" min="2" max="2" width="14.89"/>
-    <col customWidth="1" min="3" max="4" width="16.78"/>
-    <col customWidth="1" min="5" max="5" width="31.33"/>
-    <col customWidth="1" min="6" max="6" width="17.0"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>610</v>
       </c>
@@ -9676,7 +9687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
@@ -9699,7 +9710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -9722,7 +9733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -9745,7 +9756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -9791,7 +9802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -9814,7 +9825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
@@ -9837,7 +9848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
@@ -9860,7 +9871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
@@ -9883,7 +9894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -9906,7 +9917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
@@ -9929,7 +9940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
@@ -9952,7 +9963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>25</v>
       </c>
@@ -9975,7 +9986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
@@ -9998,7 +10009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
@@ -10021,7 +10032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>28</v>
       </c>
@@ -10044,7 +10055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
@@ -10067,7 +10078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
@@ -10090,7 +10101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
@@ -10113,7 +10124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -10136,7 +10147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>33</v>
       </c>
@@ -10159,7 +10170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
@@ -10182,7 +10193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
@@ -10205,7 +10216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
@@ -10228,7 +10239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>37</v>
       </c>
@@ -10251,7 +10262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>38</v>
       </c>
@@ -10274,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>39</v>
       </c>
@@ -10297,7 +10308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>40</v>
       </c>
@@ -10320,7 +10331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>41</v>
       </c>
@@ -10343,7 +10354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>42</v>
       </c>
@@ -10366,7 +10377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>43</v>
       </c>
@@ -10389,7 +10400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
@@ -10412,7 +10423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
@@ -10435,7 +10446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -10458,7 +10469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>47</v>
       </c>
@@ -10481,7 +10492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>48</v>
       </c>
@@ -10504,7 +10515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>49</v>
       </c>
@@ -10527,7 +10538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>50</v>
       </c>
@@ -10550,7 +10561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>51</v>
       </c>
@@ -10573,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>52</v>
       </c>
@@ -10596,7 +10607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>53</v>
       </c>
@@ -10619,7 +10630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>54</v>
       </c>
@@ -10642,7 +10653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>55</v>
       </c>
@@ -10665,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>56</v>
       </c>
@@ -10688,7 +10699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>57</v>
       </c>
@@ -10711,7 +10722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>58</v>
       </c>
@@ -10734,7 +10745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>60</v>
       </c>
@@ -10757,7 +10768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>61</v>
       </c>
@@ -10780,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>62</v>
       </c>
@@ -10803,7 +10814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>63</v>
       </c>
@@ -10826,7 +10837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>64</v>
       </c>
@@ -10849,7 +10860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>65</v>
       </c>
@@ -10872,7 +10883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>66</v>
       </c>
@@ -10895,7 +10906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>67</v>
       </c>
@@ -10918,7 +10929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
@@ -10941,7 +10952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>69</v>
       </c>
@@ -10964,7 +10975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>70</v>
       </c>
@@ -10987,7 +10998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>71</v>
       </c>
@@ -11010,7 +11021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>72</v>
       </c>
@@ -11033,7 +11044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>73</v>
       </c>
@@ -11056,7 +11067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>74</v>
       </c>
@@ -11079,7 +11090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>75</v>
       </c>
@@ -11102,7 +11113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>76</v>
       </c>
@@ -11125,7 +11136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>77</v>
       </c>
@@ -11148,7 +11159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>78</v>
       </c>
@@ -11171,7 +11182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>79</v>
       </c>
@@ -11194,7 +11205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>80</v>
       </c>
@@ -11217,7 +11228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>82</v>
       </c>
@@ -11240,7 +11251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>84</v>
       </c>
@@ -11263,7 +11274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>86</v>
       </c>
@@ -11286,7 +11297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>88</v>
       </c>
@@ -11309,7 +11320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>90</v>
       </c>
@@ -11332,7 +11343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>92</v>
       </c>
@@ -11355,7 +11366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>93</v>
       </c>
@@ -11378,7 +11389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>94</v>
       </c>
@@ -11401,7 +11412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>95</v>
       </c>
@@ -11424,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>97</v>
       </c>
@@ -11447,7 +11458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>99</v>
       </c>
@@ -11470,7 +11481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>101</v>
       </c>
@@ -11493,7 +11504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>103</v>
       </c>
@@ -11516,7 +11527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>105</v>
       </c>
@@ -11539,7 +11550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>106</v>
       </c>
@@ -11562,7 +11573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>107</v>
       </c>
@@ -11585,7 +11596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>108</v>
       </c>
@@ -11608,7 +11619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>109</v>
       </c>
@@ -11631,7 +11642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>110</v>
       </c>
@@ -11654,7 +11665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>111</v>
       </c>
@@ -11677,7 +11688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>112</v>
       </c>
@@ -11700,7 +11711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>113</v>
       </c>
@@ -11723,7 +11734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>114</v>
       </c>
@@ -11746,7 +11757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>115</v>
       </c>
@@ -11769,7 +11780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>116</v>
       </c>
@@ -11792,7 +11803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>117</v>
       </c>
@@ -11815,7 +11826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>118</v>
       </c>
@@ -11838,7 +11849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>119</v>
       </c>
@@ -11861,7 +11872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>120</v>
       </c>
@@ -11884,7 +11895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>121</v>
       </c>
@@ -11907,7 +11918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>122</v>
       </c>
@@ -11930,7 +11941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>123</v>
       </c>
@@ -11953,7 +11964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>124</v>
       </c>
@@ -11976,7 +11987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>125</v>
       </c>
@@ -11999,7 +12010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>126</v>
       </c>
@@ -12022,7 +12033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>127</v>
       </c>
@@ -12045,7 +12056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>128</v>
       </c>
@@ -12068,7 +12079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>129</v>
       </c>
@@ -12091,7 +12102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>130</v>
       </c>
@@ -12102,27 +12113,27 @@
         <v>710</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>711</v>
+        <v>886</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>131</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>713</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>714</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>8</v>
@@ -12137,15 +12148,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>715</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>716</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>8</v>
@@ -12160,15 +12171,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>717</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>718</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>8</v>
@@ -12177,21 +12188,21 @@
         <v>142</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="C111" s="14" t="s">
         <v>720</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>721</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>8</v>
@@ -12200,18 +12211,18 @@
         <v>146</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G111" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>149</v>
@@ -12223,18 +12234,18 @@
         <v>150</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>153</v>
@@ -12246,18 +12257,18 @@
         <v>154</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>161</v>
@@ -12275,12 +12286,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>164</v>
@@ -12298,12 +12309,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>166</v>
@@ -12321,12 +12332,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>168</v>
@@ -12344,12 +12355,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>170</v>
@@ -12367,12 +12378,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>172</v>
@@ -12390,12 +12401,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>174</v>
@@ -12413,12 +12424,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>176</v>
@@ -12436,12 +12447,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>178</v>
@@ -12459,12 +12470,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>180</v>
@@ -12482,12 +12493,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>182</v>
@@ -12505,12 +12516,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>184</v>
@@ -12528,12 +12539,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>186</v>
@@ -12551,12 +12562,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>187</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>188</v>
@@ -12574,12 +12585,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>190</v>
@@ -12597,12 +12608,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>192</v>
@@ -12620,12 +12631,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C130" s="14" t="s">
         <v>194</v>
@@ -12643,12 +12654,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>195</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>196</v>
@@ -12666,12 +12677,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>198</v>
@@ -12689,12 +12700,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>200</v>
@@ -12712,12 +12723,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>201</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>203</v>
@@ -12729,24 +12740,24 @@
         <v>202</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>206</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>750</v>
+        <v>887</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>207</v>
@@ -12758,12 +12769,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>211</v>
@@ -12775,24 +12786,24 @@
         <v>210</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
         <v>213</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>213</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>753</v>
+        <v>888</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>214</v>
@@ -12804,12 +12815,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>215</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>217</v>
@@ -12827,12 +12838,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>221</v>
@@ -12850,12 +12861,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>223</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>225</v>
@@ -12867,24 +12878,24 @@
         <v>224</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>227</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>228</v>
@@ -12896,12 +12907,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
         <v>229</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>231</v>
@@ -12913,24 +12924,24 @@
         <v>230</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>233</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>234</v>
@@ -12942,12 +12953,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>235</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>237</v>
@@ -12965,12 +12976,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
         <v>239</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>240</v>
@@ -12979,7 +12990,7 @@
         <v>8</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F145" s="14" t="s">
         <v>413</v>
@@ -12988,12 +12999,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>241</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>243</v>
@@ -13011,12 +13022,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>245</v>
@@ -13034,12 +13045,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>247</v>
@@ -13057,12 +13068,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>249</v>
@@ -13080,12 +13091,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>250</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>251</v>
@@ -13103,12 +13114,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>252</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>253</v>
@@ -13126,12 +13137,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>255</v>
@@ -13149,12 +13160,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C153" s="14" t="s">
         <v>257</v>
@@ -13172,12 +13183,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C154" s="14" t="s">
         <v>259</v>
@@ -13195,12 +13206,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>260</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>261</v>
@@ -13218,12 +13229,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>262</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>264</v>
@@ -13241,12 +13252,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C157" s="14" t="s">
         <v>268</v>
@@ -13264,12 +13275,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>272</v>
@@ -13287,12 +13298,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>276</v>
@@ -13310,12 +13321,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>280</v>
@@ -13333,18 +13344,18 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>282</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>283</v>
@@ -13354,12 +13365,12 @@
       </c>
       <c r="G161" s="14"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>287</v>
@@ -13377,18 +13388,18 @@
         <v>288</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>290</v>
@@ -13398,12 +13409,12 @@
       </c>
       <c r="G163" s="14"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>292</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>294</v>
@@ -13421,18 +13432,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>296</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E165" s="14" t="s">
         <v>297</v>
@@ -13444,12 +13455,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
         <v>299</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>301</v>
@@ -13458,7 +13469,7 @@
         <v>8</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F166" s="14" t="s">
         <v>413</v>
@@ -13467,12 +13478,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>306</v>
@@ -13481,7 +13492,7 @@
         <v>8</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F167" s="14" t="s">
         <v>413</v>
@@ -13490,12 +13501,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>310</v>
@@ -13504,7 +13515,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F168" s="14" t="s">
         <v>413</v>
@@ -13513,12 +13524,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>314</v>
@@ -13527,7 +13538,7 @@
         <v>8</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>413</v>
@@ -13536,12 +13547,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>318</v>
@@ -13559,12 +13570,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>322</v>
@@ -13582,12 +13593,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>326</v>
@@ -13605,12 +13616,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>330</v>
@@ -13628,12 +13639,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
         <v>332</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>334</v>
@@ -13651,21 +13662,21 @@
         <v>335</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
         <v>336</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>338</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F175" s="14" t="s">
         <v>205</v>
@@ -13674,12 +13685,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
         <v>339</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>341</v>
@@ -13697,12 +13708,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>343</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>345</v>
@@ -13720,12 +13731,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
         <v>346</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C178" s="14" t="s">
         <v>348</v>
@@ -13743,12 +13754,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>351</v>
@@ -13766,12 +13777,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
         <v>353</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>355</v>
@@ -13789,12 +13800,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
         <v>356</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>358</v>
@@ -13812,12 +13823,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
         <v>359</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>361</v>
@@ -13835,12 +13846,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
         <v>362</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C183" s="14" t="s">
         <v>364</v>
@@ -13858,12 +13869,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>367</v>
@@ -13881,12 +13892,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>368</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>370</v>
@@ -13904,12 +13915,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
         <v>371</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C186" s="14" t="s">
         <v>373</v>
@@ -13927,12 +13938,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
         <v>374</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C187" s="14" t="s">
         <v>376</v>
@@ -13950,12 +13961,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
         <v>377</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>379</v>
@@ -13973,12 +13984,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
         <v>380</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C189" s="14" t="s">
         <v>382</v>
@@ -13996,12 +14007,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
         <v>383</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>385</v>
@@ -14019,12 +14030,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
         <v>386</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C191" s="14" t="s">
         <v>388</v>
@@ -14042,12 +14053,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
         <v>389</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>391</v>
@@ -14065,12 +14076,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
         <v>392</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>394</v>
@@ -14088,12 +14099,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>395</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C194" s="14" t="s">
         <v>397</v>
@@ -14111,12 +14122,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>398</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>400</v>
@@ -14134,12 +14145,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>401</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>403</v>
@@ -14157,12 +14168,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>404</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>406</v>
@@ -14180,18 +14191,18 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>407</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>338</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E198" s="14" t="s">
         <v>408</v>
@@ -14203,7 +14214,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>409</v>
       </c>
@@ -14226,7 +14237,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>414</v>
       </c>
@@ -14249,7 +14260,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>416</v>
       </c>
@@ -14272,7 +14283,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>418</v>
       </c>
@@ -14295,7 +14306,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>420</v>
       </c>
@@ -14318,7 +14329,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>422</v>
       </c>
@@ -14341,7 +14352,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>424</v>
       </c>
@@ -14364,7 +14375,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>426</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>428</v>
       </c>
@@ -14410,12 +14421,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>430</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>432</v>
@@ -14433,12 +14444,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>434</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>436</v>
@@ -14456,12 +14467,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
         <v>437</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C210" s="14" t="s">
         <v>439</v>
@@ -14479,12 +14490,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
         <v>440</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C211" s="14" t="s">
         <v>442</v>
@@ -14502,12 +14513,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
         <v>443</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C212" s="14" t="s">
         <v>445</v>
@@ -14525,12 +14536,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
         <v>446</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C213" s="14" t="s">
         <v>448</v>
@@ -14548,12 +14559,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
         <v>449</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>451</v>
@@ -14571,12 +14582,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
         <v>452</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C215" s="14" t="s">
         <v>454</v>
@@ -14594,12 +14605,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
         <v>455</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>457</v>
@@ -14608,7 +14619,7 @@
         <v>8</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F216" s="14" t="s">
         <v>413</v>
@@ -14617,12 +14628,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
         <v>458</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>460</v>
@@ -14640,12 +14651,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
         <v>461</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>463</v>
@@ -14663,12 +14674,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
         <v>464</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>466</v>
@@ -14686,12 +14697,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
         <v>467</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>469</v>
@@ -14709,12 +14720,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
         <v>470</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>472</v>
@@ -14732,12 +14743,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
         <v>473</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>475</v>
@@ -14755,12 +14766,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
         <v>476</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>478</v>
@@ -14778,12 +14789,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>481</v>
@@ -14801,12 +14812,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
         <v>482</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>484</v>
@@ -14824,12 +14835,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
         <v>485</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>487</v>
@@ -14847,12 +14858,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
         <v>488</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C227" s="14" t="s">
         <v>490</v>
@@ -14870,12 +14881,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
         <v>491</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C228" s="14" t="s">
         <v>493</v>
@@ -14893,12 +14904,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
         <v>494</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C229" s="14" t="s">
         <v>496</v>
@@ -14916,12 +14927,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
         <v>497</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C230" s="14" t="s">
         <v>499</v>
@@ -14939,12 +14950,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
         <v>500</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>502</v>
@@ -14962,12 +14973,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
         <v>503</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>505</v>
@@ -14985,12 +14996,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
         <v>506</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C233" s="14" t="s">
         <v>508</v>
@@ -14999,7 +15010,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="14" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F233" s="14" t="s">
         <v>413</v>
@@ -15008,12 +15019,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
         <v>509</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>511</v>
@@ -15031,12 +15042,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
         <v>512</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C235" s="14" t="s">
         <v>514</v>
@@ -15054,12 +15065,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
         <v>515</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C236" s="14" t="s">
         <v>517</v>
@@ -15077,12 +15088,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
         <v>518</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C237" s="14" t="s">
         <v>520</v>
@@ -15100,12 +15111,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
         <v>521</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>523</v>
@@ -15123,12 +15134,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
         <v>524</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>526</v>
@@ -15146,12 +15157,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
         <v>527</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C240" s="14" t="s">
         <v>529</v>
@@ -15169,12 +15180,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
         <v>530</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C241" s="14" t="s">
         <v>532</v>
@@ -15192,12 +15203,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
         <v>533</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>535</v>
@@ -15215,12 +15226,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>538</v>
@@ -15238,12 +15249,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
         <v>539</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>541</v>
@@ -15261,12 +15272,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
         <v>542</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C245" s="14" t="s">
         <v>544</v>
@@ -15284,12 +15295,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
         <v>545</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C246" s="14" t="s">
         <v>547</v>
@@ -15307,12 +15318,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>548</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>550</v>
@@ -15330,12 +15341,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
         <v>551</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>553</v>
@@ -15353,12 +15364,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
         <v>554</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C249" s="14" t="s">
         <v>556</v>
@@ -15376,12 +15387,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
         <v>557</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C250" s="14" t="s">
         <v>559</v>
@@ -15399,12 +15410,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
         <v>560</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C251" s="14" t="s">
         <v>562</v>
@@ -15422,12 +15433,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
         <v>563</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C252" s="14" t="s">
         <v>565</v>
@@ -15445,12 +15456,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
         <v>566</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C253" s="14" t="s">
         <v>568</v>
@@ -15468,12 +15479,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
         <v>570</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C254" s="14" t="s">
         <v>572</v>
@@ -15491,12 +15502,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
         <v>573</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C255" s="14" t="s">
         <v>575</v>
@@ -15514,12 +15525,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
         <v>576</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C256" s="14" t="s">
         <v>578</v>
@@ -15537,12 +15548,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>579</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C257" s="14" t="s">
         <v>581</v>
@@ -15560,12 +15571,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="14" t="s">
         <v>582</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C258" s="14" t="s">
         <v>584</v>
@@ -15583,12 +15594,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
         <v>585</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C259" s="14" t="s">
         <v>587</v>
@@ -15606,12 +15617,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
         <v>588</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C260" s="14" t="s">
         <v>590</v>
@@ -15629,12 +15640,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
         <v>591</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C261" s="14" t="s">
         <v>593</v>
@@ -15652,12 +15663,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
         <v>594</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C262" s="14" t="s">
         <v>596</v>
@@ -15675,12 +15686,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
         <v>598</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C263" s="14" t="s">
         <v>598</v>
@@ -15699,6 +15710,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_raw/gsheet_input_var_name_xwalk.xlsx
+++ b/data_raw/gsheet_input_var_name_xwalk.xlsx
@@ -57,7 +57,9 @@
 ahh...coffee hadn't kicked in yet, I understand now. Ok will wrap this up shortly.
 	-Ryan Peek
 ok! I can chat around 9:15 if needed!
-	-Ted Grantham</t>
+	-Ted Grantham
+sounds good, let me pull this together and maybe I can give you a buzz
+	-Ryan Peek</t>
       </text>
     </comment>
   </commentList>
@@ -2573,7 +2575,7 @@
     <t>WTDEPAVE</t>
   </si>
   <si>
-    <t xml:space="preserve">duplicate, use awa </t>
+    <t>calculated from cat_wtdep</t>
   </si>
   <si>
     <t>SGEO1</t>
@@ -14246,7 +14248,7 @@
         <v>834</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D198" s="14" t="s">
         <v>835</v>
